--- a/App/Controllers/Excel/Horarios.xlsx
+++ b/App/Controllers/Excel/Horarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="22">
   <si>
     <t>cod_turma</t>
   </si>
@@ -46,16 +46,37 @@
     <t>F369</t>
   </si>
   <si>
-    <t>IPI</t>
+    <t>SGBD</t>
   </si>
   <si>
-    <t>SGBD</t>
+    <t>IPI</t>
   </si>
   <si>
     <t>FM</t>
   </si>
   <si>
     <t>CIC</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>S478</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>RPT</t>
+  </si>
+  <si>
+    <t>FPN</t>
+  </si>
+  <si>
+    <t>H523</t>
+  </si>
+  <si>
+    <t>EMII</t>
   </si>
 </sst>
 </file>
@@ -394,11 +415,11 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>1.02543687E8</v>
+        <v>1.23456871E8</v>
       </c>
       <c r="D3" s="2">
         <v>2.0200102E7</v>
@@ -421,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>1.59126321E8</v>
@@ -447,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>1.23456871E8</v>
@@ -551,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>1.59126321E8</v>
@@ -655,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
         <v>1.59126321E8</v>
@@ -681,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>1.23456871E8</v>
@@ -785,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="6">
         <v>1.59126321E8</v>
@@ -811,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
         <v>1.23456871E8</v>
@@ -915,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6">
         <v>1.59126321E8</v>
@@ -941,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <v>1.23456871E8</v>
@@ -1045,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="6">
         <v>1.59126321E8</v>
@@ -1071,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
         <v>1.23456871E8</v>
@@ -1175,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="6">
         <v>1.59126321E8</v>
@@ -1201,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
         <v>1.23456871E8</v>
@@ -1305,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="6">
         <v>1.59126321E8</v>
@@ -1331,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
         <v>1.23456871E8</v>
@@ -1435,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="6">
         <v>1.59126321E8</v>
@@ -1461,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2">
         <v>1.23456871E8</v>
@@ -1565,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" s="6">
         <v>1.59126321E8</v>
@@ -1591,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>1.23456871E8</v>
@@ -1695,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="6">
         <v>1.59126321E8</v>
@@ -1721,9 +1742,9 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4">
         <v>1.23456871E8</v>
       </c>
       <c r="D54" s="2">
@@ -1825,7 +1846,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="6">
         <v>1.59126321E8</v>
@@ -1851,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2">
         <v>1.23456871E8</v>
@@ -1955,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" s="6">
         <v>1.59126321E8</v>
@@ -1981,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2">
         <v>1.23456871E8</v>
@@ -1999,6 +2020,214 @@
         <v>10</v>
       </c>
       <c r="H64" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.23456871E8</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.0200327E7</v>
+      </c>
+      <c r="E65" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>40000.0</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1.59126321E8</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2.0200328E7</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>40000.0</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5.8132461E8</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2.0200328E7</v>
+      </c>
+      <c r="E67" s="2">
+        <v>83000.0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>123000.0</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4.68134129E8</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2.0200329E7</v>
+      </c>
+      <c r="E68" s="2">
+        <v>83000.0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>123000.0</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.23456871E8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.0200327E7</v>
+      </c>
+      <c r="E69" s="2">
+        <v>83000.0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>123000.0</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.23456871E8</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2.0200327E7</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>40000.0</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.23456871E8</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2.0200102E7</v>
+      </c>
+      <c r="E71" s="2">
+        <v>161800.0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>162000.0</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.23456871E8</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2.0200102E7</v>
+      </c>
+      <c r="E72" s="2">
+        <v>162200.0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>162400.0</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="2">
         <v>2020.0</v>
       </c>
     </row>
